--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vvss\vvss-echipa-1\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Facultate\Sem6\VVSS\vvss-echipa-1\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F738A-1AE3-4C4D-ABC1-3FC05FBC7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -17,7 +18,20 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -186,12 +200,6 @@
     <t>A07</t>
   </si>
   <si>
-    <t>Clasa Controller ar trebui sa se numeasca TaskController</t>
-  </si>
-  <si>
-    <t>TaskService ar trebui sa aiba un dateService in loc de relatia curenta, iar metodele getIntervalInHours, formTimeUnite si parseFromStringToSeconds ar trebui sa fie in dateservice</t>
-  </si>
-  <si>
     <t>C07</t>
   </si>
   <si>
@@ -211,12 +219,18 @@
   </si>
   <si>
     <t>Formatul de la time ar trebui validat</t>
+  </si>
+  <si>
+    <t>Clasa Controller ar trebui sa se numeasca TasksController</t>
+  </si>
+  <si>
+    <t>Metodele getIntervalInHours, formTimeUnite si parseFromStringToSeconds ar trebui sa fie in DateService in loc de clasa TasksService</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,7 +432,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,9 +443,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -472,10 +486,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,9 +507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,9 +547,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,7 +584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -779,29 +792,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="B3" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -812,7 +825,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
@@ -820,61 +833,61 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -882,14 +895,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -899,11 +912,11 @@
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -917,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -932,7 +945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
@@ -947,7 +960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -962,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -977,7 +990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -986,7 +999,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -995,7 +1008,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1004,88 +1017,85 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1099,32 +1109,35 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1135,7 +1148,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -1143,25 +1156,25 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1169,17 +1182,17 @@
         <v>15</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1187,17 +1200,17 @@
         <v>12</v>
       </c>
       <c r="E5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1205,14 +1218,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1238,7 +1251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1251,7 +1264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1261,10 +1274,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1274,10 +1287,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1286,7 +1299,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1295,7 +1308,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1304,7 +1317,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1313,7 +1326,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1322,7 +1335,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1331,7 +1344,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1340,7 +1353,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1349,7 +1362,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1358,7 +1371,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1367,7 +1380,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1376,7 +1389,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1385,7 +1398,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1394,15 +1407,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1415,33 +1427,36 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1452,7 +1467,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
@@ -1460,61 +1475,61 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="21" t="s">
         <v>35</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="33"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1522,14 +1537,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1543,47 +1558,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1592,7 +1607,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1601,7 +1616,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1610,7 +1625,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1619,7 +1634,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1628,7 +1643,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1637,7 +1652,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1646,7 +1661,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1655,7 +1670,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1664,7 +1679,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1673,7 +1688,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1682,7 +1697,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1691,7 +1706,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1700,7 +1715,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1709,7 +1724,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1718,7 +1733,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1727,7 +1742,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1736,7 +1751,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1745,15 +1760,14 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1766,11 +1780,14 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
@@ -1780,20 +1797,20 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1804,7 +1821,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
@@ -1812,54 +1829,54 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -1885,7 +1902,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1895,7 +1912,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
@@ -1905,7 +1922,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1915,7 +1932,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1925,7 +1942,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1935,7 +1952,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1945,7 +1962,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1955,7 +1972,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1965,7 +1982,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1975,7 +1992,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1985,7 +2002,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1995,7 +2012,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2005,7 +2022,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2015,7 +2032,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2025,7 +2042,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2035,7 +2052,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2045,7 +2062,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2055,7 +2072,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2065,7 +2082,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2075,7 +2092,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2085,16 +2102,13 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2107,5 +2121,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K0000FF INTERNAL USE&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Facultate\Sem6\VVSS\vvss-echipa-1\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\H\projects\lab01\vvss-echipa-1\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906F738A-1AE3-4C4D-ABC1-3FC05FBC7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C1158-7059-496A-B9D0-5596780B9A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>Ilies Bogdan-Sorin</t>
   </si>
   <si>
@@ -225,19 +222,151 @@
   </si>
   <si>
     <t>Metodele getIntervalInHours, formTimeUnite si parseFromStringToSeconds ar trebui sa fie in DateService in loc de clasa TasksService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constants should be named consistently to communicate intent and improve maintainability. </t>
+  </si>
+  <si>
+    <t>private static final int defaultWidth = 820;</t>
+  </si>
+  <si>
+    <t>private static final int DEFAULT_WIDTH = 820;</t>
+  </si>
+  <si>
+    <t>Main,21</t>
+  </si>
+  <si>
+    <t>Main,22</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>private static final int defaultHeight = 520;</t>
+  </si>
+  <si>
+    <t>private static final int DEFAULT_HEIGHT = 520;</t>
+  </si>
+  <si>
+    <t>If a private field is declared but not used locally, its limited visibility makes it dead code.
+This is either a sign that some logic is missing or that the code should be cleaned.</t>
+  </si>
+  <si>
+    <t>Main 27</t>
+  </si>
+  <si>
+    <t>private static ClassLoader classLoader = Main.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>DateService,32</t>
+  </si>
+  <si>
+    <t>Use static access with "java.util.Calendar" for "getInstance".</t>
+  </si>
+  <si>
+    <t>Calendar calendar = GregorianCalendar.getInstance();</t>
+  </si>
+  <si>
+    <t>Calendar calendar = Calendar.getInstance();</t>
+  </si>
+  <si>
+    <t>DateService,51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In object-oriented programming, inappropriately accessing static members of a base class via derived types is considered a code smell.
+ </t>
+  </si>
+  <si>
+    <t>int result = (hours * DateService.MINUTES_IN_HOUR + minutes) * DateService.SECONDS_IN_MINUTE;
+        return result;</t>
+  </si>
+  <si>
+    <t>return (hours * DateService.MINUTES_IN_HOUR + minutes) * DateService.SECONDS_IN_MINUTE;</t>
+  </si>
+  <si>
+    <t>TaskIO,26</t>
+  </si>
+  <si>
+    <t>Many resources in Java need be closed after they have been used. If they are not, the garbage collector cannot reclaim the resources' memory, and they are still considered to be in use by the operating system.</t>
+  </si>
+  <si>
+    <t>try {
+            dataOutputStream.writeInt(tasks.size());
+            for (Task t : tasks){
+                dataOutputStream.writeInt(t.getTitle().length());
+                dataOutputStream.writeUTF(t.getTitle());
+                dataOutputStream.writeBoolean(t.isActive());
+                dataOutputStream.writeInt(t.getRepeatInterval());
+                if (t.isRepeated()){
+                    dataOutputStream.writeLong(t.getStartTime().getTime());
+                    dataOutputStream.writeLong(t.getEndTime().getTime());
+                }
+                else {
+                    dataOutputStream.writeLong(t.getTime().getTime());
+                }
+            }
+        }
+        finally {
+            dataOutputStream.close();
+        }</t>
+  </si>
+  <si>
+    <t>try (DataOutputStream dataOutputStream = new DataOutputStream(out)) {
+            dataOutputStream.writeInt(tasks.size());
+            for (Task t : tasks) {
+                dataOutputStream.writeInt(t.getTitle().length());
+                dataOutputStream.writeUTF(t.getTitle());
+                dataOutputStream.writeBoolean(t.isActive());
+                dataOutputStream.writeInt(t.getRepeatInterval());
+                if (t.isRepeated()) {
+                    dataOutputStream.writeLong(t.getStartTime().getTime());
+                    dataOutputStream.writeLong(t.getEndTime().getTime());
+                } else {
+                    dataOutputStream.writeLong(t.getTime().getTime());
+                }
+            }
+        }</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t>TaskIO,180</t>
+  </si>
+  <si>
+    <t>String[] numAndTextValues = trimmed.split(" "); //{"46", "minutes", "40", "seconds"};</t>
+  </si>
+  <si>
+    <t>String[] numAndTextValues = trimmed.split(" ");</t>
+  </si>
+  <si>
+    <t>Ilies Bogdan</t>
+  </si>
+  <si>
+    <t>Lup Andrei</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,79 +545,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,19 +936,19 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -825,7 +959,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>19</v>
       </c>
@@ -840,18 +974,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -863,13 +997,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
@@ -881,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -895,14 +1029,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -916,81 +1050,81 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -999,7 +1133,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1008,7 +1142,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1017,7 +1151,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1026,7 +1160,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1035,7 +1169,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1044,7 +1178,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1053,7 +1187,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1062,7 +1196,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1071,7 +1205,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1080,7 +1214,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1089,7 +1223,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
@@ -1126,18 +1260,18 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1148,7 +1282,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
@@ -1163,18 +1297,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1186,13 +1320,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1204,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1218,14 +1352,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1239,58 +1373,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1299,7 +1433,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1308,7 +1442,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1317,7 +1451,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1326,7 +1460,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1335,7 +1469,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1344,7 +1478,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1353,7 +1487,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1362,7 +1496,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1371,7 +1505,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1380,7 +1514,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1389,7 +1523,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1398,7 +1532,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1407,7 +1541,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
@@ -1440,23 +1574,23 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1467,7 +1601,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
@@ -1482,18 +1616,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
@@ -1505,13 +1639,13 @@
         <v>21</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
@@ -1523,13 +1657,13 @@
         <v>22</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -1537,14 +1671,14 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1558,47 +1692,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1607,7 +1741,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1616,7 +1750,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1625,7 +1759,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1634,7 +1768,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1643,7 +1777,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1652,7 +1786,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1661,7 +1795,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1670,7 +1804,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1679,7 +1813,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1688,7 +1822,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1697,7 +1831,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1706,7 +1840,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1715,7 +1849,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1724,7 +1858,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1733,7 +1867,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1742,7 +1876,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1751,7 +1885,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1760,7 +1894,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C32" s="11" t="s">
         <v>8</v>
       </c>
@@ -1793,24 +1927,24 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="6"/>
+    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="6" width="16.7265625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" style="6"/>
+    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -1821,7 +1955,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>31</v>
       </c>
@@ -1836,14 +1970,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="17">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
@@ -1852,10 +1990,14 @@
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1864,10 +2006,14 @@
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
@@ -1876,7 +2022,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1893,86 +2039,140 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1982,7 +2182,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1992,7 +2192,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2002,7 +2202,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2012,7 +2212,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2022,7 +2222,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2032,7 +2232,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2042,7 +2242,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2052,7 +2252,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2062,7 +2262,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2072,7 +2272,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2082,7 +2282,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2092,7 +2292,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2102,9 +2302,9 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="34" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
